--- a/Code/Results/Cases/Case_2_79/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_79/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9842203065448442</v>
+        <v>1.022680305178376</v>
       </c>
       <c r="D2">
-        <v>1.004975674244075</v>
+        <v>1.026441591250012</v>
       </c>
       <c r="E2">
-        <v>0.9978695399234042</v>
+        <v>1.047240088899647</v>
       </c>
       <c r="F2">
-        <v>0.9995008215397146</v>
+        <v>1.051236601709801</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036773138136239</v>
+        <v>1.028107959857691</v>
       </c>
       <c r="J2">
-        <v>1.006883451547967</v>
+        <v>1.027864780605469</v>
       </c>
       <c r="K2">
-        <v>1.016366122544285</v>
+        <v>1.029264227892524</v>
       </c>
       <c r="L2">
-        <v>1.009358635452046</v>
+        <v>1.050003280226983</v>
       </c>
       <c r="M2">
-        <v>1.010967115094435</v>
+        <v>1.05398866255884</v>
       </c>
       <c r="N2">
-        <v>1.006045051364262</v>
+        <v>1.013297654950742</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9898080708789939</v>
+        <v>1.023814574245496</v>
       </c>
       <c r="D3">
-        <v>1.008840747443734</v>
+        <v>1.02723671351503</v>
       </c>
       <c r="E3">
-        <v>1.004104969034109</v>
+        <v>1.048609489330848</v>
       </c>
       <c r="F3">
-        <v>1.006178255333134</v>
+        <v>1.052703932155035</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037928119143775</v>
+        <v>1.028268440723941</v>
       </c>
       <c r="J3">
-        <v>1.010580487618008</v>
+        <v>1.028636243807575</v>
       </c>
       <c r="K3">
-        <v>1.019361745297689</v>
+        <v>1.029866898756318</v>
       </c>
       <c r="L3">
-        <v>1.01468559408531</v>
+        <v>1.051183039048338</v>
       </c>
       <c r="M3">
-        <v>1.016732689893065</v>
+        <v>1.055266915320932</v>
       </c>
       <c r="N3">
-        <v>1.00730381903907</v>
+        <v>1.013557109867162</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9933312924433753</v>
+        <v>1.024547947313807</v>
       </c>
       <c r="D4">
-        <v>1.011280013153218</v>
+        <v>1.027750536646682</v>
       </c>
       <c r="E4">
-        <v>1.008043365022822</v>
+        <v>1.049495810182668</v>
       </c>
       <c r="F4">
-        <v>1.010395422589316</v>
+        <v>1.053653670127505</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038644191478758</v>
+        <v>1.028370636855177</v>
       </c>
       <c r="J4">
-        <v>1.012907136561176</v>
+        <v>1.029134357520505</v>
       </c>
       <c r="K4">
-        <v>1.021244178274134</v>
+        <v>1.030255543978371</v>
       </c>
       <c r="L4">
-        <v>1.018045673421843</v>
+        <v>1.051946117719041</v>
       </c>
       <c r="M4">
-        <v>1.020369982399138</v>
+        <v>1.056093795263164</v>
       </c>
       <c r="N4">
-        <v>1.008095568939062</v>
+        <v>1.013724521103148</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9947913157571924</v>
+        <v>1.024856121606375</v>
       </c>
       <c r="D5">
-        <v>1.012291291932907</v>
+        <v>1.027966386836554</v>
       </c>
       <c r="E5">
-        <v>1.009677154090702</v>
+        <v>1.049868477446053</v>
       </c>
       <c r="F5">
-        <v>1.012144764903304</v>
+        <v>1.054053010126463</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038937955744291</v>
+        <v>1.028413206181727</v>
       </c>
       <c r="J5">
-        <v>1.01387019601093</v>
+        <v>1.029343508305167</v>
       </c>
       <c r="K5">
-        <v>1.022022663082204</v>
+        <v>1.030418614185663</v>
       </c>
       <c r="L5">
-        <v>1.019438464036625</v>
+        <v>1.052266846349969</v>
       </c>
       <c r="M5">
-        <v>1.021877809126926</v>
+        <v>1.056441362628932</v>
       </c>
       <c r="N5">
-        <v>1.008423184142314</v>
+        <v>1.013794787706435</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9950352480495911</v>
+        <v>1.024907857520443</v>
       </c>
       <c r="D6">
-        <v>1.012460274268409</v>
+        <v>1.028002619598504</v>
       </c>
       <c r="E6">
-        <v>1.009950221522407</v>
+        <v>1.049931053423327</v>
       </c>
       <c r="F6">
-        <v>1.012437140429454</v>
+        <v>1.054120065294592</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038986859581546</v>
+        <v>1.028420330660633</v>
       </c>
       <c r="J6">
-        <v>1.014031032294518</v>
+        <v>1.029378610647234</v>
       </c>
       <c r="K6">
-        <v>1.022152632175933</v>
+        <v>1.030445975861141</v>
       </c>
       <c r="L6">
-        <v>1.019671187142525</v>
+        <v>1.052320694106832</v>
       </c>
       <c r="M6">
-        <v>1.022129761200596</v>
+        <v>1.056499717709561</v>
       </c>
       <c r="N6">
-        <v>1.008477890997109</v>
+        <v>1.013806579154823</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9933508831471543</v>
+        <v>1.02455206568484</v>
       </c>
       <c r="D7">
-        <v>1.011293580919103</v>
+        <v>1.027753421479924</v>
       </c>
       <c r="E7">
-        <v>1.008065280428634</v>
+        <v>1.049500789548597</v>
       </c>
       <c r="F7">
-        <v>1.010418888361797</v>
+        <v>1.053659005847679</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038648145072709</v>
+        <v>1.028371207216398</v>
       </c>
       <c r="J7">
-        <v>1.012920063388111</v>
+        <v>1.029137153209027</v>
       </c>
       <c r="K7">
-        <v>1.021254630436477</v>
+        <v>1.030257724172466</v>
       </c>
       <c r="L7">
-        <v>1.018064360437352</v>
+        <v>1.05195040358039</v>
       </c>
       <c r="M7">
-        <v>1.020390212347084</v>
+        <v>1.056098439679292</v>
       </c>
       <c r="N7">
-        <v>1.008099966855456</v>
+        <v>1.013725460452947</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9861284749435397</v>
+        <v>1.023063756882457</v>
       </c>
       <c r="D8">
-        <v>1.006295030614151</v>
+        <v>1.026710446333349</v>
       </c>
       <c r="E8">
-        <v>0.9999975006863765</v>
+        <v>1.047702839301213</v>
       </c>
       <c r="F8">
-        <v>1.001779714253381</v>
+        <v>1.051732437842109</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037170080058468</v>
+        <v>1.028162535913408</v>
       </c>
       <c r="J8">
-        <v>1.008146858130022</v>
+        <v>1.028125723326348</v>
       </c>
       <c r="K8">
-        <v>1.017390401579296</v>
+        <v>1.029468177607172</v>
       </c>
       <c r="L8">
-        <v>1.011177505826627</v>
+        <v>1.050402050139371</v>
       </c>
       <c r="M8">
-        <v>1.012935632026609</v>
+        <v>1.054420704733002</v>
       </c>
       <c r="N8">
-        <v>1.006475301802824</v>
+        <v>1.013385437143701</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.972645460170554</v>
+        <v>1.020436679165079</v>
       </c>
       <c r="D9">
-        <v>0.9969861739054882</v>
+        <v>1.02486741174451</v>
       </c>
       <c r="E9">
-        <v>0.9849868478590958</v>
+        <v>1.044536200834785</v>
       </c>
       <c r="F9">
-        <v>0.9857023629692</v>
+        <v>1.048339529374495</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034315485994944</v>
+        <v>1.027782222997511</v>
       </c>
       <c r="J9">
-        <v>0.9992025851218698</v>
+        <v>1.02633517786823</v>
       </c>
       <c r="K9">
-        <v>1.010128338323511</v>
+        <v>1.028066738318393</v>
       </c>
       <c r="L9">
-        <v>0.9983282917304613</v>
+        <v>1.047671181583713</v>
       </c>
       <c r="M9">
-        <v>0.9990317484531225</v>
+        <v>1.051462372557879</v>
       </c>
       <c r="N9">
-        <v>1.003427831881265</v>
+        <v>1.012782634535301</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9630743262419914</v>
+        <v>1.018682155814457</v>
       </c>
       <c r="D10">
-        <v>0.9904003702108738</v>
+        <v>1.023635214230741</v>
       </c>
       <c r="E10">
-        <v>0.974359073178776</v>
+        <v>1.042425944712062</v>
       </c>
       <c r="F10">
-        <v>0.9743164009333835</v>
+        <v>1.046078660631057</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032228183653968</v>
+        <v>1.027520198696557</v>
       </c>
       <c r="J10">
-        <v>0.9928336557980484</v>
+        <v>1.025135847950305</v>
       </c>
       <c r="K10">
-        <v>1.004945139385201</v>
+        <v>1.027125580340942</v>
       </c>
       <c r="L10">
-        <v>0.9892072467461732</v>
+        <v>1.04584874016507</v>
       </c>
       <c r="M10">
-        <v>0.9891653990595309</v>
+        <v>1.049488631644772</v>
       </c>
       <c r="N10">
-        <v>1.001256259993099</v>
+        <v>1.012378302154682</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9587730557318852</v>
+        <v>1.017921655702976</v>
       </c>
       <c r="D11">
-        <v>0.9874476642886103</v>
+        <v>1.023100820384002</v>
       </c>
       <c r="E11">
-        <v>0.96958787648778</v>
+        <v>1.041512328154464</v>
       </c>
       <c r="F11">
-        <v>0.9692039924480276</v>
+        <v>1.045099879211584</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031276587859191</v>
+        <v>1.027404725624863</v>
       </c>
       <c r="J11">
-        <v>0.9899675146395798</v>
+        <v>1.024615172843715</v>
       </c>
       <c r="K11">
-        <v>1.002610246177843</v>
+        <v>1.026716411429079</v>
       </c>
       <c r="L11">
-        <v>0.985107050847658</v>
+        <v>1.045059116166579</v>
       </c>
       <c r="M11">
-        <v>0.9847310218236736</v>
+        <v>1.048633572607713</v>
       </c>
       <c r="N11">
-        <v>1.000278764029027</v>
+        <v>1.012202633033729</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9571500105619903</v>
+        <v>1.017639052424699</v>
       </c>
       <c r="D12">
-        <v>0.9863346870440618</v>
+        <v>1.022902195191224</v>
       </c>
       <c r="E12">
-        <v>0.9677880896629684</v>
+        <v>1.041172986627263</v>
       </c>
       <c r="F12">
-        <v>0.9672753557847182</v>
+        <v>1.04473633997369</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030915555574184</v>
+        <v>1.027361530863232</v>
       </c>
       <c r="J12">
-        <v>0.9888854766021258</v>
+        <v>1.024421565525977</v>
       </c>
       <c r="K12">
-        <v>1.001728460843232</v>
+        <v>1.026564180429656</v>
       </c>
       <c r="L12">
-        <v>0.9835595806858277</v>
+        <v>1.044765736366598</v>
       </c>
       <c r="M12">
-        <v>0.9830575611256589</v>
+        <v>1.048315898954677</v>
       </c>
       <c r="N12">
-        <v>0.9999097096630919</v>
+        <v>1.012137292567714</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9574993376823432</v>
+        <v>1.017699677243071</v>
       </c>
       <c r="D13">
-        <v>0.9865741757745398</v>
+        <v>1.022944806751331</v>
       </c>
       <c r="E13">
-        <v>0.9681754333227004</v>
+        <v>1.041245775868625</v>
       </c>
       <c r="F13">
-        <v>0.9676904365084944</v>
+        <v>1.044814319375195</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030993347335937</v>
+        <v>1.027370809997592</v>
       </c>
       <c r="J13">
-        <v>0.9891183856873839</v>
+        <v>1.024463104271435</v>
       </c>
       <c r="K13">
-        <v>1.001918278502166</v>
+        <v>1.026596845707232</v>
       </c>
       <c r="L13">
-        <v>0.9838926573770816</v>
+        <v>1.044828670935813</v>
       </c>
       <c r="M13">
-        <v>0.9834177498113147</v>
+        <v>1.048384044114308</v>
       </c>
       <c r="N13">
-        <v>0.9999891497320174</v>
+        <v>1.012151312359587</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9586394226842009</v>
+        <v>1.017898298083691</v>
       </c>
       <c r="D14">
-        <v>0.9873560022923804</v>
+        <v>1.023084404569118</v>
       </c>
       <c r="E14">
-        <v>0.9694396806507248</v>
+        <v>1.041484277770302</v>
       </c>
       <c r="F14">
-        <v>0.9690451899011833</v>
+        <v>1.04506982848748</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031246901576223</v>
+        <v>1.027401161313168</v>
       </c>
       <c r="J14">
-        <v>0.9898784355653365</v>
+        <v>1.024599173401106</v>
       </c>
       <c r="K14">
-        <v>1.00253765889648</v>
+        <v>1.026703833020044</v>
       </c>
       <c r="L14">
-        <v>0.9849796470453064</v>
+        <v>1.045034866920725</v>
       </c>
       <c r="M14">
-        <v>0.984593242419081</v>
+        <v>1.048607314988115</v>
       </c>
       <c r="N14">
-        <v>1.000248381986559</v>
+        <v>1.012197233791107</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9593384493723464</v>
+        <v>1.01802065900571</v>
       </c>
       <c r="D15">
-        <v>0.9878355306063532</v>
+        <v>1.023170398472806</v>
       </c>
       <c r="E15">
-        <v>0.9702149070780837</v>
+        <v>1.041631228696004</v>
       </c>
       <c r="F15">
-        <v>0.9698758953242476</v>
+        <v>1.045227259091197</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031402109679945</v>
+        <v>1.027419821613822</v>
       </c>
       <c r="J15">
-        <v>0.9903443820214836</v>
+        <v>1.024682982820922</v>
       </c>
       <c r="K15">
-        <v>1.002917329456198</v>
+        <v>1.026769718619398</v>
       </c>
       <c r="L15">
-        <v>0.985646076019178</v>
+        <v>1.045161900580089</v>
       </c>
       <c r="M15">
-        <v>0.9853139500025407</v>
+        <v>1.048744870586217</v>
       </c>
       <c r="N15">
-        <v>1.000407300537415</v>
+        <v>1.012225515677301</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9633563330466051</v>
+        <v>1.018732611056933</v>
       </c>
       <c r="D16">
-        <v>0.9905941173731585</v>
+        <v>1.023670662345255</v>
       </c>
       <c r="E16">
-        <v>0.9746719792733384</v>
+        <v>1.042486580969237</v>
       </c>
       <c r="F16">
-        <v>0.974651666116952</v>
+        <v>1.04614362272268</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032290298957209</v>
+        <v>1.027527819795609</v>
       </c>
       <c r="J16">
-        <v>0.9930214940232888</v>
+        <v>1.025170374719083</v>
       </c>
       <c r="K16">
-        <v>1.005098116311474</v>
+        <v>1.02715270088055</v>
       </c>
       <c r="L16">
-        <v>0.9894760358360036</v>
+        <v>1.04590113414716</v>
       </c>
       <c r="M16">
-        <v>0.9894561136882216</v>
+        <v>1.049545369976304</v>
       </c>
       <c r="N16">
-        <v>1.001320317934993</v>
+        <v>1.012389948258782</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9658334307431587</v>
+        <v>1.019178989200689</v>
       </c>
       <c r="D17">
-        <v>0.9922967635138021</v>
+        <v>1.023984238155806</v>
       </c>
       <c r="E17">
-        <v>0.9774210316289875</v>
+        <v>1.043023154747273</v>
       </c>
       <c r="F17">
-        <v>0.9775970594938899</v>
+        <v>1.046718480861971</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032834382080028</v>
+        <v>1.027595024625099</v>
       </c>
       <c r="J17">
-        <v>0.9946709927532571</v>
+        <v>1.025475738344477</v>
       </c>
       <c r="K17">
-        <v>1.006441220073877</v>
+        <v>1.027392495508602</v>
       </c>
       <c r="L17">
-        <v>0.9918368830927994</v>
+        <v>1.046364700571141</v>
       </c>
       <c r="M17">
-        <v>0.9920096364863022</v>
+        <v>1.050047387759386</v>
       </c>
       <c r="N17">
-        <v>1.001882815230295</v>
+        <v>1.012492934081326</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9672632708259709</v>
+        <v>1.019439278937046</v>
       </c>
       <c r="D18">
-        <v>0.9932802173907417</v>
+        <v>1.024167060215742</v>
       </c>
       <c r="E18">
-        <v>0.979008326757814</v>
+        <v>1.043336142792937</v>
       </c>
       <c r="F18">
-        <v>0.9792976435796733</v>
+        <v>1.047053804507148</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033147154730195</v>
+        <v>1.027634029678979</v>
       </c>
       <c r="J18">
-        <v>0.9956227463734791</v>
+        <v>1.025653720916956</v>
       </c>
       <c r="K18">
-        <v>1.007215959997127</v>
+        <v>1.027532205355074</v>
       </c>
       <c r="L18">
-        <v>0.9931995162430338</v>
+        <v>1.046635043543928</v>
       </c>
       <c r="M18">
-        <v>0.9934835584705461</v>
+        <v>1.050340166359311</v>
       </c>
       <c r="N18">
-        <v>1.00220734971521</v>
+        <v>1.012552947019343</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9677483149090262</v>
+        <v>1.019528018351206</v>
       </c>
       <c r="D19">
-        <v>0.9936139392012465</v>
+        <v>1.024229384026848</v>
       </c>
       <c r="E19">
-        <v>0.9795468695144115</v>
+        <v>1.043442866076201</v>
       </c>
       <c r="F19">
-        <v>0.9798746105536191</v>
+        <v>1.04716814450637</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033253036140821</v>
+        <v>1.027647296429663</v>
       </c>
       <c r="J19">
-        <v>0.9959455436000088</v>
+        <v>1.025714386222632</v>
       </c>
       <c r="K19">
-        <v>1.007478681628037</v>
+        <v>1.027579815977394</v>
       </c>
       <c r="L19">
-        <v>0.9936617473600509</v>
+        <v>1.046727215577854</v>
       </c>
       <c r="M19">
-        <v>0.9939835543657015</v>
+        <v>1.050439989656874</v>
       </c>
       <c r="N19">
-        <v>1.002317414594222</v>
+        <v>1.012573400233114</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.965569226406205</v>
+        <v>1.019131104834226</v>
       </c>
       <c r="D20">
-        <v>0.9921150931496808</v>
+        <v>1.023950602863898</v>
       </c>
       <c r="E20">
-        <v>0.9771277725399078</v>
+        <v>1.042965584079757</v>
       </c>
       <c r="F20">
-        <v>0.9772828636114931</v>
+        <v>1.046656802131919</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032776483715838</v>
+        <v>1.027587834290676</v>
       </c>
       <c r="J20">
-        <v>0.9944950977969652</v>
+        <v>1.025442989263675</v>
       </c>
       <c r="K20">
-        <v>1.006298020725156</v>
+        <v>1.027366784194456</v>
       </c>
       <c r="L20">
-        <v>0.9915850895357666</v>
+        <v>1.046314969220075</v>
       </c>
       <c r="M20">
-        <v>0.9917372849429087</v>
+        <v>1.049993530156573</v>
       </c>
       <c r="N20">
-        <v>1.001822835523497</v>
+        <v>1.012481890570704</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9583044114694282</v>
+        <v>1.017839812520401</v>
       </c>
       <c r="D21">
-        <v>0.9871262302017827</v>
+        <v>1.023043300017088</v>
       </c>
       <c r="E21">
-        <v>0.9690681700381186</v>
+        <v>1.041414044489335</v>
       </c>
       <c r="F21">
-        <v>0.9686470871664843</v>
+        <v>1.044994586804467</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031172448386436</v>
+        <v>1.027392231971095</v>
       </c>
       <c r="J21">
-        <v>0.9896551106543815</v>
+        <v>1.0245591101158</v>
       </c>
       <c r="K21">
-        <v>1.002355674826939</v>
+        <v>1.02667233476073</v>
       </c>
       <c r="L21">
-        <v>0.9846602469951331</v>
+        <v>1.044974149535371</v>
       </c>
       <c r="M21">
-        <v>0.9842478330151081</v>
+        <v>1.048541569153873</v>
       </c>
       <c r="N21">
-        <v>1.000172212576943</v>
+        <v>1.012183713537918</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9535889724219342</v>
+        <v>1.017027232138184</v>
       </c>
       <c r="D22">
-        <v>0.9838951521979962</v>
+        <v>1.022472104538482</v>
       </c>
       <c r="E22">
-        <v>0.9638401491100442</v>
+        <v>1.040438622307851</v>
       </c>
       <c r="F22">
-        <v>0.96304450513055</v>
+        <v>1.043949621176901</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030119923479482</v>
+        <v>1.027267496309254</v>
       </c>
       <c r="J22">
-        <v>0.9865105421912573</v>
+        <v>1.024002191094733</v>
       </c>
       <c r="K22">
-        <v>0.9997925457778218</v>
+        <v>1.026234274751846</v>
       </c>
       <c r="L22">
-        <v>0.9801636636868041</v>
+        <v>1.044130668064642</v>
       </c>
       <c r="M22">
-        <v>0.9793854117314315</v>
+        <v>1.047628275944181</v>
       </c>
       <c r="N22">
-        <v>0.9990996480521083</v>
+        <v>1.01199572190064</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9561033690462084</v>
+        <v>1.017458062962286</v>
       </c>
       <c r="D23">
-        <v>0.9856173276952213</v>
+        <v>1.022774976273898</v>
       </c>
       <c r="E23">
-        <v>0.9666276161589344</v>
+        <v>1.040955704793389</v>
       </c>
       <c r="F23">
-        <v>0.9660317612800254</v>
+        <v>1.044503566004695</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030682198431321</v>
+        <v>1.027333787254974</v>
       </c>
       <c r="J23">
-        <v>0.9881875709406956</v>
+        <v>1.024297537615525</v>
       </c>
       <c r="K23">
-        <v>1.001159636352924</v>
+        <v>1.026466634686508</v>
       </c>
       <c r="L23">
-        <v>0.9825615744309752</v>
+        <v>1.044577857993479</v>
       </c>
       <c r="M23">
-        <v>0.9819783385924942</v>
+        <v>1.048112468085966</v>
       </c>
       <c r="N23">
-        <v>0.9996716667897321</v>
+        <v>1.012095428864827</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9656886552238477</v>
+        <v>1.019152741949598</v>
       </c>
       <c r="D24">
-        <v>0.992197211976754</v>
+        <v>1.023965801455729</v>
       </c>
       <c r="E24">
-        <v>0.9772603335453667</v>
+        <v>1.042991597743125</v>
       </c>
       <c r="F24">
-        <v>0.9774248888518325</v>
+        <v>1.046684672036456</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032802659624844</v>
+        <v>1.027591083893803</v>
       </c>
       <c r="J24">
-        <v>0.994574609121385</v>
+        <v>1.025457787567525</v>
       </c>
       <c r="K24">
-        <v>1.006362753072604</v>
+        <v>1.027378402519405</v>
       </c>
       <c r="L24">
-        <v>0.9916989085988511</v>
+        <v>1.046337440822725</v>
       </c>
       <c r="M24">
-        <v>0.991860396650426</v>
+        <v>1.050017866211241</v>
       </c>
       <c r="N24">
-        <v>1.001849948746573</v>
+        <v>1.012486880833622</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9762279653892807</v>
+        <v>1.021116385941707</v>
       </c>
       <c r="D25">
-        <v>0.9994562955185622</v>
+        <v>1.025344496711721</v>
       </c>
       <c r="E25">
-        <v>0.9889700023299002</v>
+        <v>1.045354688810469</v>
       </c>
       <c r="F25">
-        <v>0.9899690364640553</v>
+        <v>1.049216471189418</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035084669436728</v>
+        <v>1.027882037632481</v>
       </c>
       <c r="J25">
-        <v>1.00158272013715</v>
+        <v>1.0267990646057</v>
       </c>
       <c r="K25">
-        <v>1.012063057666309</v>
+        <v>1.028430251325522</v>
       </c>
       <c r="L25">
-        <v>1.001741992555573</v>
+        <v>1.048377490104028</v>
       </c>
       <c r="M25">
-        <v>1.002725092017919</v>
+        <v>1.052227424786063</v>
       </c>
       <c r="N25">
-        <v>1.00423909212525</v>
+        <v>1.012938906422133</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_79/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_79/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.022680305178376</v>
+        <v>0.9842203065448429</v>
       </c>
       <c r="D2">
-        <v>1.026441591250012</v>
+        <v>1.004975674244074</v>
       </c>
       <c r="E2">
-        <v>1.047240088899647</v>
+        <v>0.9978695399234044</v>
       </c>
       <c r="F2">
-        <v>1.051236601709801</v>
+        <v>0.9995008215397148</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.028107959857691</v>
+        <v>1.036773138136238</v>
       </c>
       <c r="J2">
-        <v>1.027864780605469</v>
+        <v>1.006883451547966</v>
       </c>
       <c r="K2">
-        <v>1.029264227892524</v>
+        <v>1.016366122544285</v>
       </c>
       <c r="L2">
-        <v>1.050003280226983</v>
+        <v>1.009358635452046</v>
       </c>
       <c r="M2">
-        <v>1.05398866255884</v>
+        <v>1.010967115094435</v>
       </c>
       <c r="N2">
-        <v>1.013297654950742</v>
+        <v>1.006045051364262</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.023814574245496</v>
+        <v>0.9898080708789936</v>
       </c>
       <c r="D3">
-        <v>1.02723671351503</v>
+        <v>1.008840747443734</v>
       </c>
       <c r="E3">
-        <v>1.048609489330848</v>
+        <v>1.004104969034109</v>
       </c>
       <c r="F3">
-        <v>1.052703932155035</v>
+        <v>1.006178255333134</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.028268440723941</v>
+        <v>1.037928119143775</v>
       </c>
       <c r="J3">
-        <v>1.028636243807575</v>
+        <v>1.010580487618008</v>
       </c>
       <c r="K3">
-        <v>1.029866898756318</v>
+        <v>1.019361745297688</v>
       </c>
       <c r="L3">
-        <v>1.051183039048338</v>
+        <v>1.01468559408531</v>
       </c>
       <c r="M3">
-        <v>1.055266915320932</v>
+        <v>1.016732689893065</v>
       </c>
       <c r="N3">
-        <v>1.013557109867162</v>
+        <v>1.00730381903907</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.024547947313807</v>
+        <v>0.9933312924433749</v>
       </c>
       <c r="D4">
-        <v>1.027750536646682</v>
+        <v>1.011280013153218</v>
       </c>
       <c r="E4">
-        <v>1.049495810182668</v>
+        <v>1.008043365022821</v>
       </c>
       <c r="F4">
-        <v>1.053653670127505</v>
+        <v>1.010395422589316</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.028370636855177</v>
+        <v>1.038644191478758</v>
       </c>
       <c r="J4">
-        <v>1.029134357520505</v>
+        <v>1.012907136561176</v>
       </c>
       <c r="K4">
-        <v>1.030255543978371</v>
+        <v>1.021244178274133</v>
       </c>
       <c r="L4">
-        <v>1.051946117719041</v>
+        <v>1.018045673421842</v>
       </c>
       <c r="M4">
-        <v>1.056093795263164</v>
+        <v>1.020369982399137</v>
       </c>
       <c r="N4">
-        <v>1.013724521103148</v>
+        <v>1.008095568939062</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.024856121606375</v>
+        <v>0.9947913157571925</v>
       </c>
       <c r="D5">
-        <v>1.027966386836554</v>
+        <v>1.012291291932907</v>
       </c>
       <c r="E5">
-        <v>1.049868477446053</v>
+        <v>1.009677154090703</v>
       </c>
       <c r="F5">
-        <v>1.054053010126463</v>
+        <v>1.012144764903305</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.028413206181727</v>
+        <v>1.038937955744291</v>
       </c>
       <c r="J5">
-        <v>1.029343508305167</v>
+        <v>1.01387019601093</v>
       </c>
       <c r="K5">
-        <v>1.030418614185663</v>
+        <v>1.022022663082204</v>
       </c>
       <c r="L5">
-        <v>1.052266846349969</v>
+        <v>1.019438464036627</v>
       </c>
       <c r="M5">
-        <v>1.056441362628932</v>
+        <v>1.021877809126927</v>
       </c>
       <c r="N5">
-        <v>1.013794787706435</v>
+        <v>1.008423184142314</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.024907857520443</v>
+        <v>0.9950352480495908</v>
       </c>
       <c r="D6">
-        <v>1.028002619598504</v>
+        <v>1.012460274268409</v>
       </c>
       <c r="E6">
-        <v>1.049931053423327</v>
+        <v>1.009950221522407</v>
       </c>
       <c r="F6">
-        <v>1.054120065294592</v>
+        <v>1.012437140429454</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.028420330660633</v>
+        <v>1.038986859581546</v>
       </c>
       <c r="J6">
-        <v>1.029378610647234</v>
+        <v>1.014031032294518</v>
       </c>
       <c r="K6">
-        <v>1.030445975861141</v>
+        <v>1.022152632175932</v>
       </c>
       <c r="L6">
-        <v>1.052320694106832</v>
+        <v>1.019671187142525</v>
       </c>
       <c r="M6">
-        <v>1.056499717709561</v>
+        <v>1.022129761200596</v>
       </c>
       <c r="N6">
-        <v>1.013806579154823</v>
+        <v>1.008477890997109</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.02455206568484</v>
+        <v>0.9933508831471527</v>
       </c>
       <c r="D7">
-        <v>1.027753421479924</v>
+        <v>1.011293580919102</v>
       </c>
       <c r="E7">
-        <v>1.049500789548597</v>
+        <v>1.008065280428633</v>
       </c>
       <c r="F7">
-        <v>1.053659005847679</v>
+        <v>1.010418888361796</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.028371207216398</v>
+        <v>1.038648145072708</v>
       </c>
       <c r="J7">
-        <v>1.029137153209027</v>
+        <v>1.01292006338811</v>
       </c>
       <c r="K7">
-        <v>1.030257724172466</v>
+        <v>1.021254630436476</v>
       </c>
       <c r="L7">
-        <v>1.05195040358039</v>
+        <v>1.018064360437351</v>
       </c>
       <c r="M7">
-        <v>1.056098439679292</v>
+        <v>1.020390212347083</v>
       </c>
       <c r="N7">
-        <v>1.013725460452947</v>
+        <v>1.008099966855455</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.023063756882457</v>
+        <v>0.9861284749435399</v>
       </c>
       <c r="D8">
-        <v>1.026710446333349</v>
+        <v>1.006295030614151</v>
       </c>
       <c r="E8">
-        <v>1.047702839301213</v>
+        <v>0.9999975006863774</v>
       </c>
       <c r="F8">
-        <v>1.051732437842109</v>
+        <v>1.001779714253382</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.028162535913408</v>
+        <v>1.037170080058468</v>
       </c>
       <c r="J8">
-        <v>1.028125723326348</v>
+        <v>1.008146858130022</v>
       </c>
       <c r="K8">
-        <v>1.029468177607172</v>
+        <v>1.017390401579296</v>
       </c>
       <c r="L8">
-        <v>1.050402050139371</v>
+        <v>1.011177505826627</v>
       </c>
       <c r="M8">
-        <v>1.054420704733002</v>
+        <v>1.01293563202661</v>
       </c>
       <c r="N8">
-        <v>1.013385437143701</v>
+        <v>1.006475301802824</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.020436679165079</v>
+        <v>0.9726454601705533</v>
       </c>
       <c r="D9">
-        <v>1.02486741174451</v>
+        <v>0.9969861739054878</v>
       </c>
       <c r="E9">
-        <v>1.044536200834785</v>
+        <v>0.9849868478590963</v>
       </c>
       <c r="F9">
-        <v>1.048339529374495</v>
+        <v>0.9857023629692004</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.027782222997511</v>
+        <v>1.034315485994944</v>
       </c>
       <c r="J9">
-        <v>1.02633517786823</v>
+        <v>0.9992025851218695</v>
       </c>
       <c r="K9">
-        <v>1.028066738318393</v>
+        <v>1.010128338323511</v>
       </c>
       <c r="L9">
-        <v>1.047671181583713</v>
+        <v>0.9983282917304617</v>
       </c>
       <c r="M9">
-        <v>1.051462372557879</v>
+        <v>0.9990317484531227</v>
       </c>
       <c r="N9">
-        <v>1.012782634535301</v>
+        <v>1.003427831881265</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.018682155814457</v>
+        <v>0.9630743262419917</v>
       </c>
       <c r="D10">
-        <v>1.023635214230741</v>
+        <v>0.9904003702108737</v>
       </c>
       <c r="E10">
-        <v>1.042425944712062</v>
+        <v>0.9743590731787773</v>
       </c>
       <c r="F10">
-        <v>1.046078660631057</v>
+        <v>0.9743164009333849</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.027520198696557</v>
+        <v>1.032228183653968</v>
       </c>
       <c r="J10">
-        <v>1.025135847950305</v>
+        <v>0.9928336557980486</v>
       </c>
       <c r="K10">
-        <v>1.027125580340942</v>
+        <v>1.004945139385201</v>
       </c>
       <c r="L10">
-        <v>1.04584874016507</v>
+        <v>0.9892072467461744</v>
       </c>
       <c r="M10">
-        <v>1.049488631644772</v>
+        <v>0.9891653990595324</v>
       </c>
       <c r="N10">
-        <v>1.012378302154682</v>
+        <v>1.001256259993099</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.017921655702976</v>
+        <v>0.9587730557318858</v>
       </c>
       <c r="D11">
-        <v>1.023100820384002</v>
+        <v>0.9874476642886105</v>
       </c>
       <c r="E11">
-        <v>1.041512328154464</v>
+        <v>0.9695878764877801</v>
       </c>
       <c r="F11">
-        <v>1.045099879211584</v>
+        <v>0.9692039924480278</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027404725624863</v>
+        <v>1.031276587859191</v>
       </c>
       <c r="J11">
-        <v>1.024615172843715</v>
+        <v>0.9899675146395802</v>
       </c>
       <c r="K11">
-        <v>1.026716411429079</v>
+        <v>1.002610246177844</v>
       </c>
       <c r="L11">
-        <v>1.045059116166579</v>
+        <v>0.9851070508476584</v>
       </c>
       <c r="M11">
-        <v>1.048633572607713</v>
+        <v>0.9847310218236738</v>
       </c>
       <c r="N11">
-        <v>1.012202633033729</v>
+        <v>1.000278764029028</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.017639052424699</v>
+        <v>0.957150010561991</v>
       </c>
       <c r="D12">
-        <v>1.022902195191224</v>
+        <v>0.9863346870440624</v>
       </c>
       <c r="E12">
-        <v>1.041172986627263</v>
+        <v>0.9677880896629681</v>
       </c>
       <c r="F12">
-        <v>1.04473633997369</v>
+        <v>0.9672753557847181</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027361530863232</v>
+        <v>1.030915555574185</v>
       </c>
       <c r="J12">
-        <v>1.024421565525977</v>
+        <v>0.9888854766021262</v>
       </c>
       <c r="K12">
-        <v>1.026564180429656</v>
+        <v>1.001728460843233</v>
       </c>
       <c r="L12">
-        <v>1.044765736366598</v>
+        <v>0.9835595806858277</v>
       </c>
       <c r="M12">
-        <v>1.048315898954677</v>
+        <v>0.9830575611256588</v>
       </c>
       <c r="N12">
-        <v>1.012137292567714</v>
+        <v>0.9999097096630921</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.017699677243071</v>
+        <v>0.9574993376823425</v>
       </c>
       <c r="D13">
-        <v>1.022944806751331</v>
+        <v>0.9865741757745393</v>
       </c>
       <c r="E13">
-        <v>1.041245775868625</v>
+        <v>0.9681754333227002</v>
       </c>
       <c r="F13">
-        <v>1.044814319375195</v>
+        <v>0.967690436508494</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.027370809997592</v>
+        <v>1.030993347335937</v>
       </c>
       <c r="J13">
-        <v>1.024463104271435</v>
+        <v>0.9891183856873834</v>
       </c>
       <c r="K13">
-        <v>1.026596845707232</v>
+        <v>1.001918278502166</v>
       </c>
       <c r="L13">
-        <v>1.044828670935813</v>
+        <v>0.9838926573770816</v>
       </c>
       <c r="M13">
-        <v>1.048384044114308</v>
+        <v>0.9834177498113144</v>
       </c>
       <c r="N13">
-        <v>1.012151312359587</v>
+        <v>0.9999891497320172</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.017898298083691</v>
+        <v>0.9586394226842009</v>
       </c>
       <c r="D14">
-        <v>1.023084404569118</v>
+        <v>0.9873560022923801</v>
       </c>
       <c r="E14">
-        <v>1.041484277770302</v>
+        <v>0.9694396806507251</v>
       </c>
       <c r="F14">
-        <v>1.04506982848748</v>
+        <v>0.9690451899011835</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027401161313168</v>
+        <v>1.031246901576222</v>
       </c>
       <c r="J14">
-        <v>1.024599173401106</v>
+        <v>0.9898784355653364</v>
       </c>
       <c r="K14">
-        <v>1.026703833020044</v>
+        <v>1.00253765889648</v>
       </c>
       <c r="L14">
-        <v>1.045034866920725</v>
+        <v>0.9849796470453066</v>
       </c>
       <c r="M14">
-        <v>1.048607314988115</v>
+        <v>0.9845932424190813</v>
       </c>
       <c r="N14">
-        <v>1.012197233791107</v>
+        <v>1.000248381986559</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.01802065900571</v>
+        <v>0.9593384493723457</v>
       </c>
       <c r="D15">
-        <v>1.023170398472806</v>
+        <v>0.9878355306063528</v>
       </c>
       <c r="E15">
-        <v>1.041631228696004</v>
+        <v>0.9702149070780828</v>
       </c>
       <c r="F15">
-        <v>1.045227259091197</v>
+        <v>0.9698758953242468</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027419821613822</v>
+        <v>1.031402109679944</v>
       </c>
       <c r="J15">
-        <v>1.024682982820922</v>
+        <v>0.9903443820214831</v>
       </c>
       <c r="K15">
-        <v>1.026769718619398</v>
+        <v>1.002917329456198</v>
       </c>
       <c r="L15">
-        <v>1.045161900580089</v>
+        <v>0.9856460760191772</v>
       </c>
       <c r="M15">
-        <v>1.048744870586217</v>
+        <v>0.98531395000254</v>
       </c>
       <c r="N15">
-        <v>1.012225515677301</v>
+        <v>1.000407300537415</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.018732611056933</v>
+        <v>0.9633563330466046</v>
       </c>
       <c r="D16">
-        <v>1.023670662345255</v>
+        <v>0.9905941173731581</v>
       </c>
       <c r="E16">
-        <v>1.042486580969237</v>
+        <v>0.9746719792733382</v>
       </c>
       <c r="F16">
-        <v>1.04614362272268</v>
+        <v>0.9746516661169514</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.027527819795609</v>
+        <v>1.032290298957208</v>
       </c>
       <c r="J16">
-        <v>1.025170374719083</v>
+        <v>0.9930214940232881</v>
       </c>
       <c r="K16">
-        <v>1.02715270088055</v>
+        <v>1.005098116311474</v>
       </c>
       <c r="L16">
-        <v>1.04590113414716</v>
+        <v>0.9894760358360032</v>
       </c>
       <c r="M16">
-        <v>1.049545369976304</v>
+        <v>0.9894561136882212</v>
       </c>
       <c r="N16">
-        <v>1.012389948258782</v>
+        <v>1.001320317934993</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.019178989200689</v>
+        <v>0.9658334307431581</v>
       </c>
       <c r="D17">
-        <v>1.023984238155806</v>
+        <v>0.9922967635138014</v>
       </c>
       <c r="E17">
-        <v>1.043023154747273</v>
+        <v>0.977421031628986</v>
       </c>
       <c r="F17">
-        <v>1.046718480861971</v>
+        <v>0.9775970594938884</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027595024625099</v>
+        <v>1.032834382080027</v>
       </c>
       <c r="J17">
-        <v>1.025475738344477</v>
+        <v>0.9946709927532564</v>
       </c>
       <c r="K17">
-        <v>1.027392495508602</v>
+        <v>1.006441220073877</v>
       </c>
       <c r="L17">
-        <v>1.046364700571141</v>
+        <v>0.991836883092798</v>
       </c>
       <c r="M17">
-        <v>1.050047387759386</v>
+        <v>0.9920096364863007</v>
       </c>
       <c r="N17">
-        <v>1.012492934081326</v>
+        <v>1.001882815230295</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.019439278937046</v>
+        <v>0.9672632708259711</v>
       </c>
       <c r="D18">
-        <v>1.024167060215742</v>
+        <v>0.9932802173907419</v>
       </c>
       <c r="E18">
-        <v>1.043336142792937</v>
+        <v>0.9790083267578144</v>
       </c>
       <c r="F18">
-        <v>1.047053804507148</v>
+        <v>0.979297643579674</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027634029678979</v>
+        <v>1.033147154730195</v>
       </c>
       <c r="J18">
-        <v>1.025653720916956</v>
+        <v>0.9956227463734795</v>
       </c>
       <c r="K18">
-        <v>1.027532205355074</v>
+        <v>1.007215959997127</v>
       </c>
       <c r="L18">
-        <v>1.046635043543928</v>
+        <v>0.993199516243034</v>
       </c>
       <c r="M18">
-        <v>1.050340166359311</v>
+        <v>0.9934835584705467</v>
       </c>
       <c r="N18">
-        <v>1.012552947019343</v>
+        <v>1.00220734971521</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.019528018351206</v>
+        <v>0.9677483149090258</v>
       </c>
       <c r="D19">
-        <v>1.024229384026848</v>
+        <v>0.9936139392012465</v>
       </c>
       <c r="E19">
-        <v>1.043442866076201</v>
+        <v>0.9795468695144119</v>
       </c>
       <c r="F19">
-        <v>1.04716814450637</v>
+        <v>0.9798746105536194</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027647296429663</v>
+        <v>1.033253036140821</v>
       </c>
       <c r="J19">
-        <v>1.025714386222632</v>
+        <v>0.9959455436000083</v>
       </c>
       <c r="K19">
-        <v>1.027579815977394</v>
+        <v>1.007478681628037</v>
       </c>
       <c r="L19">
-        <v>1.046727215577854</v>
+        <v>0.9936617473600512</v>
       </c>
       <c r="M19">
-        <v>1.050439989656874</v>
+        <v>0.9939835543657017</v>
       </c>
       <c r="N19">
-        <v>1.012573400233114</v>
+        <v>1.002317414594222</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.019131104834226</v>
+        <v>0.9655692264062046</v>
       </c>
       <c r="D20">
-        <v>1.023950602863898</v>
+        <v>0.9921150931496807</v>
       </c>
       <c r="E20">
-        <v>1.042965584079757</v>
+        <v>0.9771277725399072</v>
       </c>
       <c r="F20">
-        <v>1.046656802131919</v>
+        <v>0.9772828636114923</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027587834290676</v>
+        <v>1.032776483715838</v>
       </c>
       <c r="J20">
-        <v>1.025442989263675</v>
+        <v>0.9944950977969648</v>
       </c>
       <c r="K20">
-        <v>1.027366784194456</v>
+        <v>1.006298020725156</v>
       </c>
       <c r="L20">
-        <v>1.046314969220075</v>
+        <v>0.9915850895357662</v>
       </c>
       <c r="M20">
-        <v>1.049993530156573</v>
+        <v>0.9917372849429079</v>
       </c>
       <c r="N20">
-        <v>1.012481890570704</v>
+        <v>1.001822835523497</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.017839812520401</v>
+        <v>0.9583044114694288</v>
       </c>
       <c r="D21">
-        <v>1.023043300017088</v>
+        <v>0.9871262302017833</v>
       </c>
       <c r="E21">
-        <v>1.041414044489335</v>
+        <v>0.9690681700381187</v>
       </c>
       <c r="F21">
-        <v>1.044994586804467</v>
+        <v>0.9686470871664845</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027392231971095</v>
+        <v>1.031172448386437</v>
       </c>
       <c r="J21">
-        <v>1.0245591101158</v>
+        <v>0.9896551106543822</v>
       </c>
       <c r="K21">
-        <v>1.02667233476073</v>
+        <v>1.00235567482694</v>
       </c>
       <c r="L21">
-        <v>1.044974149535371</v>
+        <v>0.9846602469951332</v>
       </c>
       <c r="M21">
-        <v>1.048541569153873</v>
+        <v>0.9842478330151084</v>
       </c>
       <c r="N21">
-        <v>1.012183713537918</v>
+        <v>1.000172212576943</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.017027232138184</v>
+        <v>0.953588972421934</v>
       </c>
       <c r="D22">
-        <v>1.022472104538482</v>
+        <v>0.9838951521979961</v>
       </c>
       <c r="E22">
-        <v>1.040438622307851</v>
+        <v>0.9638401491100446</v>
       </c>
       <c r="F22">
-        <v>1.043949621176901</v>
+        <v>0.9630445051305501</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027267496309254</v>
+        <v>1.030119923479481</v>
       </c>
       <c r="J22">
-        <v>1.024002191094733</v>
+        <v>0.9865105421912571</v>
       </c>
       <c r="K22">
-        <v>1.026234274751846</v>
+        <v>0.9997925457778217</v>
       </c>
       <c r="L22">
-        <v>1.044130668064642</v>
+        <v>0.9801636636868042</v>
       </c>
       <c r="M22">
-        <v>1.047628275944181</v>
+        <v>0.9793854117314316</v>
       </c>
       <c r="N22">
-        <v>1.01199572190064</v>
+        <v>0.9990996480521082</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.017458062962286</v>
+        <v>0.956103369046209</v>
       </c>
       <c r="D23">
-        <v>1.022774976273898</v>
+        <v>0.9856173276952219</v>
       </c>
       <c r="E23">
-        <v>1.040955704793389</v>
+        <v>0.9666276161589354</v>
       </c>
       <c r="F23">
-        <v>1.044503566004695</v>
+        <v>0.9660317612800264</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027333787254974</v>
+        <v>1.030682198431322</v>
       </c>
       <c r="J23">
-        <v>1.024297537615525</v>
+        <v>0.9881875709406962</v>
       </c>
       <c r="K23">
-        <v>1.026466634686508</v>
+        <v>1.001159636352924</v>
       </c>
       <c r="L23">
-        <v>1.044577857993479</v>
+        <v>0.9825615744309762</v>
       </c>
       <c r="M23">
-        <v>1.048112468085966</v>
+        <v>0.9819783385924952</v>
       </c>
       <c r="N23">
-        <v>1.012095428864827</v>
+        <v>0.9996716667897322</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.019152741949598</v>
+        <v>0.9656886552238466</v>
       </c>
       <c r="D24">
-        <v>1.023965801455729</v>
+        <v>0.992197211976753</v>
       </c>
       <c r="E24">
-        <v>1.042991597743125</v>
+        <v>0.9772603335453663</v>
       </c>
       <c r="F24">
-        <v>1.046684672036456</v>
+        <v>0.9774248888518318</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027591083893803</v>
+        <v>1.032802659624843</v>
       </c>
       <c r="J24">
-        <v>1.025457787567525</v>
+        <v>0.9945746091213836</v>
       </c>
       <c r="K24">
-        <v>1.027378402519405</v>
+        <v>1.006362753072603</v>
       </c>
       <c r="L24">
-        <v>1.046337440822725</v>
+        <v>0.9916989085988508</v>
       </c>
       <c r="M24">
-        <v>1.050017866211241</v>
+        <v>0.9918603966504254</v>
       </c>
       <c r="N24">
-        <v>1.012486880833622</v>
+        <v>1.001849948746573</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.021116385941707</v>
+        <v>0.9762279653892809</v>
       </c>
       <c r="D25">
-        <v>1.025344496711721</v>
+        <v>0.9994562955185621</v>
       </c>
       <c r="E25">
-        <v>1.045354688810469</v>
+        <v>0.9889700023299003</v>
       </c>
       <c r="F25">
-        <v>1.049216471189418</v>
+        <v>0.9899690364640553</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.027882037632481</v>
+        <v>1.035084669436728</v>
       </c>
       <c r="J25">
-        <v>1.0267990646057</v>
+        <v>1.00158272013715</v>
       </c>
       <c r="K25">
-        <v>1.028430251325522</v>
+        <v>1.012063057666308</v>
       </c>
       <c r="L25">
-        <v>1.048377490104028</v>
+        <v>1.001741992555573</v>
       </c>
       <c r="M25">
-        <v>1.052227424786063</v>
+        <v>1.002725092017919</v>
       </c>
       <c r="N25">
-        <v>1.012938906422133</v>
+        <v>1.00423909212525</v>
       </c>
     </row>
   </sheetData>
